--- a/reports/employee_specific_training_needs.xlsx
+++ b/reports/employee_specific_training_needs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Training Needs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Training Needs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>Training recommendation: Due to the employee's 5 login attempts and 1 suspicious access flag, it is recommended to provide training on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>Training recommended on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Recommend training on incident reporting and faster resolution strategies.</t>
+          <t>No specific training needs identified.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Recommend additional training on secure login practices., Recommend training on identifying and preventing unauthorized access., Recommend training on secure device management and data protection.</t>
+          <t>Recommend training on secure login and unauthorized access prevention, as there were 6 login attempts and 2 suspicious access flags detected.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access., Recommend refresher training on phishing awareness and data privacy.</t>
+          <t>Training on secure login and unauthorized access prevention</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>Recommend training on secure login and unauthorized access prevention due to high number of Login Attempts and Suspicious Access Flags.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Recommend additional training on secure login practices., Recommend training on identifying and preventing unauthorized access., Recommend training on secure device management and data protection.</t>
+          <t>Recommend training on secure login and unauthorized access prevention, incident reporting and faster resolution strategies, and refresher training on phishing awareness and secure login practices. Also recommend training on secure device management and data protection.</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>Recommend training on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>No specific training needs identified.</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>No specific training needs identified.</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Recommend additional training on secure login practices., Recommend training on identifying and preventing unauthorized access., Recommend refresher training on phishing awareness and data privacy., Recommend training on secure device management and data protection.</t>
+          <t>Training recommendations: Training on secure login and unauthorized access prevention is recommended due to 6 login attempts and 3 suspicious access flags. Refresher training on phishing awareness and secure login practices is also advised as the Score Percentage is 55.0. Moreover, training on secure device management and data protection should be provided because of 3 instances of device sharing.</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Recommend training on identifying and preventing unauthorized access.</t>
+          <t>Recommended training on secure login and unauthorized access prevention due to 5 login attempts and 2 suspicious access flags. Also, training on incident reporting and faster resolution strategies may be beneficial as the Severity and Resolution Time days meet the criteria. Refresher training on phishing awareness and secure login practices is suggested as Score Percentage is below 60. Additionally, training on secure device management and data protection is advised because of 2 device sharing instances.</t>
         </is>
       </c>
     </row>

--- a/reports/employee_specific_training_needs.xlsx
+++ b/reports/employee_specific_training_needs.xlsx
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Training recommendation: Due to the employee's 5 login attempts and 1 suspicious access flag, it is recommended to provide training on secure login and unauthorized access prevention.</t>
+          <t>Training on secure login and unauthorized access prevention is recommended.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Training recommended on secure login and unauthorized access prevention.</t>
+          <t>Recommend training on secure login and unauthorized access prevention due to multiple login attempts and suspicious access flag detected.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention, as there were 6 login attempts and 2 suspicious access flags detected.</t>
+          <t>Recommend training on secure login and unauthorized access prevention, as the employee has 6 login attempts and 2 suspicious access flags.</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Training on secure login and unauthorized access prevention</t>
+          <t>No specific training needs identified.</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention due to high number of Login Attempts and Suspicious Access Flags.</t>
+          <t>Training on secure login and unauthorized access prevention. Training on secure device management and data protection.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention, incident reporting and faster resolution strategies, and refresher training on phishing awareness and secure login practices. Also recommend training on secure device management and data protection.</t>
+          <t>Training recommended on secure login and unauthorized access prevention, incident reporting and faster resolution strategies.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>No specific training needs identified.</t>
+          <t>Recommended training on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Training recommendations: Training on secure login and unauthorized access prevention is recommended due to 6 login attempts and 3 suspicious access flags. Refresher training on phishing awareness and secure login practices is also advised as the Score Percentage is 55.0. Moreover, training on secure device management and data protection should be provided because of 3 instances of device sharing.</t>
+          <t>Recommend training on secure login and unauthorized access prevention, as the employee had 6 login attempts and 3 suspicious access flags. Also, recommend refresher training on phishing awareness and secure login practices due to a score percentage of 55.0 and training on secure device management and data protection because of 3 device sharing instances.</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Recommended training on secure login and unauthorized access prevention due to 5 login attempts and 2 suspicious access flags. Also, training on incident reporting and faster resolution strategies may be beneficial as the Severity and Resolution Time days meet the criteria. Refresher training on phishing awareness and secure login practices is suggested as Score Percentage is below 60. Additionally, training on secure device management and data protection is advised because of 2 device sharing instances.</t>
+          <t>Training on secure login and unauthorized access prevention is recommended due to the high number of login attempts (5) and suspicious access flags (2). Additionally, training on incident reporting and faster resolution strategies is advised as the Severity level is not available (nan) and the Resolution Time is 6.0 days. Lastly, refresher training on phishing awareness and secure login practices should be considered since the Score Percentage is not available (nan). No specific training needs identified for Device Sharing Instances (2).</t>
         </is>
       </c>
     </row>

--- a/reports/employee_specific_training_needs.xlsx
+++ b/reports/employee_specific_training_needs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Training Needs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Training Needs" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Training on secure login and unauthorized access prevention is recommended.</t>
+          <t>Recommend training on secure login and unauthorized access prevention due to 5 login attempts and 1 suspicious access flag.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention due to multiple login attempts and suspicious access flag detected.</t>
+          <t>Training on secure login and unauthorized access prevention is recommended due to 3 login attempts and 1 suspicious access flag.</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No specific training needs identified.</t>
+          <t>Training on incident reporting and faster resolution strategies is recommended due to a Resolution Time of 10.0 days, according to guideline 2.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention, as the employee has 6 login attempts and 2 suspicious access flags.</t>
+          <t>Training on secure login and unauthorized access prevention, as the employee had 6 login attempts and 2 suspicious access flags. Additionally, training on incident reporting and faster resolution strategies may be beneficial due to a Severity level not specified and Resolution Time of 5.0 days.</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Training on secure login and unauthorized access prevention. Training on secure device management and data protection.</t>
+          <t>Recommend training on secure login and unauthorized access prevention due to the number of Login Attempts and Suspicious Access Flags.</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Training recommended on secure login and unauthorized access prevention, incident reporting and faster resolution strategies.</t>
+          <t>Recommend training on secure login and unauthorized access prevention, incident reporting and faster resolution strategies, refresher training on phishing awareness and secure login practices, and secure device management and data protection.</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention.</t>
+          <t>Training on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Recommended training on secure login and unauthorized access prevention.</t>
+          <t>Training on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>No specific training needs identified.</t>
+          <t>Recommend training on secure login and unauthorized access prevention.</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Recommend training on secure login and unauthorized access prevention, as the employee had 6 login attempts and 3 suspicious access flags. Also, recommend refresher training on phishing awareness and secure login practices due to a score percentage of 55.0 and training on secure device management and data protection because of 3 device sharing instances.</t>
+          <t>Training recommendations: Secure login and unauthorized access prevention, Refresher training on phishing awareness and secure login practices, Secure device management and data protection.</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Training on secure login and unauthorized access prevention is recommended due to the high number of login attempts (5) and suspicious access flags (2). Additionally, training on incident reporting and faster resolution strategies is advised as the Severity level is not available (nan) and the Resolution Time is 6.0 days. Lastly, refresher training on phishing awareness and secure login practices should be considered since the Score Percentage is not available (nan). No specific training needs identified for Device Sharing Instances (2).</t>
+          <t>Training recommended on secure login and unauthorized access prevention, secure device management, and data protection.</t>
         </is>
       </c>
     </row>
